--- a/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_4/out_of_sample/additive/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_4/out_of_sample/additive/ranking_test3/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.168</v>
+        <v>0.533</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.193</v>
+        <v>17.317</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.397</v>
+        <v>0.759</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.789</v>
+        <v>13.152</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.317</v>
+        <v>0.898</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.661</v>
+        <v>8.747</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>10.71177365123075</v>
+        <v>4.922099732750681</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>23.33644185635762</v>
+        <v>9.062464335926862</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>26.93173869539194</v>
+        <v>16.56096452558269</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8.899806879188821</v>
+        <v>-5.220537254115683</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>22.13970661229765</v>
+        <v>9.577089085063292</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>25.64200083318289</v>
+        <v>11.0294861442725</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>13.36041487447963</v>
+        <v>-0.7892288292915026</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>26.88155980482374</v>
+        <v>21.79188988583464</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>30.58032437039969</v>
+        <v>24.37220717717453</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>29.32868753398152</v>
+        <v>14.18210129160168</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>33.57848159357849</v>
+        <v>21.08337224809277</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>35.26304615236554</v>
+        <v>21.23473683327036</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>20.36754387516368</v>
+        <v>4.530059115298045</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>31.48737146670709</v>
+        <v>6.391210254870558</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>34.3939975778589</v>
+        <v>15.54719968598612</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>13.55873716673309</v>
+        <v>11.86483108380874</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>26.32418410030376</v>
+        <v>22.23835256757233</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>29.99143148316389</v>
+        <v>28.00345445845842</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>11.43387571191963</v>
+        <v>0.1035851335447688</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>24.76861197204096</v>
+        <v>9.656325670693562</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>28.35752830410583</v>
+        <v>14.15668849816724</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>15.98252052282857</v>
+        <v>0.5567522536864402</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>29.64030967483271</v>
+        <v>23.07595857371929</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>10.712041958469</v>
+        <v>4.602203498032381</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>23.33672106400623</v>
+        <v>15.35496507300682</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>26.93202008677928</v>
+        <v>19.07437271350373</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>8.900086388630791</v>
+        <v>-7.440641748644751</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>22.13999743596087</v>
+        <v>22.23278381457256</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>25.64229405106962</v>
+        <v>23.13329117820801</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>13.36069736338283</v>
+        <v>-2.390242295564278</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>26.88185380641374</v>
+        <v>36.51927414905244</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>30.5806206230023</v>
+        <v>36.52251059068887</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>29.32898518223178</v>
+        <v>38.30855642524615</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>33.57878152413418</v>
+        <v>42.34532685465366</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>35.26334733418913</v>
+        <v>40.71875768477442</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>20.36783275087367</v>
+        <v>9.483587341003741</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>31.48767015917249</v>
+        <v>31.19280808887602</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>34.3942979005176</v>
+        <v>34.99863534921168</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>13.55900725988167</v>
+        <v>14.08623400463297</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>26.32446515595142</v>
+        <v>31.8133785111239</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>29.99171479127035</v>
+        <v>35.16719417716236</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>11.43415686635395</v>
+        <v>1.685537782906025</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>24.76890447617151</v>
+        <v>27.62387954096944</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>28.35782327952285</v>
+        <v>33.16467599803026</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>15.9828047423</v>
+        <v>4.618090662854897</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>29.64060546871648</v>
+        <v>45.4072875207287</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>10.71224446336164</v>
+        <v>0.5609179847404988</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>23.33692024544954</v>
+        <v>11.23588669140561</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>26.93221690965895</v>
+        <v>17.6755825097827</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>8.900295523775242</v>
+        <v>-8.520090578306466</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>22.14020312107316</v>
+        <v>20.52733806113928</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>25.64249748120554</v>
+        <v>24.30609575558633</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>13.36090599079768</v>
+        <v>-3.36939386123565</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>26.8820588007248</v>
+        <v>36.38279169756093</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>30.5808232132935</v>
+        <v>39.92611649646098</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>29.3291912490031</v>
+        <v>38.63865161321671</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>33.57898580273616</v>
+        <v>41.27869613846714</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>35.26355063416642</v>
+        <v>42.95072927514558</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>20.36804033682084</v>
+        <v>2.837237269992258</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>31.4878749253863</v>
+        <v>27.36749381829982</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>34.39450063384778</v>
+        <v>33.74298372306644</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>13.55920898261401</v>
+        <v>8.754601987288268</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>26.32466348641103</v>
+        <v>26.4569239894558</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>29.99191075395165</v>
+        <v>33.00612934740776</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>11.43436540659648</v>
+        <v>-1.18679545878264</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>24.76910951602499</v>
+        <v>24.17440678333311</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>28.35802604216605</v>
+        <v>33.23783013488649</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>15.98301275594585</v>
+        <v>2.088817719384153</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>29.64080978550682</v>
+        <v>43.83626658702396</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>10.7121525710619</v>
+        <v>-2.57623420427457</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>23.33683388730674</v>
+        <v>7.649214522895605</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>26.93213170047061</v>
+        <v>17.84276502194801</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>8.900194221382959</v>
+        <v>-7.297633777709294</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>22.14010790895836</v>
+        <v>18.66521919479966</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>25.6424031255241</v>
+        <v>25.68560699575725</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>13.36080842724227</v>
+        <v>-4.527287611879686</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>26.88196730573217</v>
+        <v>31.95729372363631</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>30.58073293083998</v>
+        <v>39.30161850992009</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>29.32910092185111</v>
+        <v>28.47448318439773</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>33.57889830415028</v>
+        <v>31.39727817631685</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>35.26346354352726</v>
+        <v>38.31905342715002</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>20.3679466207923</v>
+        <v>0.1673240096616695</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>31.48778577473534</v>
+        <v>21.57578843956095</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>34.39441246104372</v>
+        <v>34.27979355824952</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>13.55911915938938</v>
+        <v>4.305798008925919</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>26.32457930115298</v>
+        <v>21.74705818467707</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>29.99182775511767</v>
+        <v>31.30745800752827</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>11.4342660026845</v>
+        <v>-1.4500346729764</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>24.76901628272472</v>
+        <v>20.10720005907699</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>28.35793370501445</v>
+        <v>31.68982112391605</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>15.98291713020659</v>
+        <v>-1.786388663945971</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>29.64072033107491</v>
+        <v>35.88250130206025</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>33.41856911913889</v>
+        <v>30.98630975909388</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>32.2603366361981</v>
+        <v>19.39138159972255</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>36.60445959733907</v>
+        <v>32.72932023430111</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>38.31797563378763</v>
+        <v>34.34055185912162</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>23.28180313962643</v>
+        <v>7.157650931351341</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>34.5775574561613</v>
+        <v>21.04210423796117</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>37.51619377861907</v>
+        <v>27.35028384732324</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>22.09745151108759</v>
+        <v>13.83985557639822</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>35.01435242061597</v>
+        <v>25.14635636942036</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>38.69066601936809</v>
+        <v>35.16662368791854</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>20.5232042838899</v>
+        <v>-2.323526876813204</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>34.03735086636964</v>
+        <v>12.48635394021365</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>37.60380173878477</v>
+        <v>18.13133676163024</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>25.07301617285837</v>
+        <v>-0.4475267933829485</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>38.88411718583951</v>
+        <v>30.0920682476489</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>42.67108098567067</v>
+        <v>42.44480594725958</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>41.75944257805734</v>
+        <v>31.68711899355399</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>46.12117958099817</v>
+        <v>46.62048328046539</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>47.8311799209426</v>
+        <v>50.67749546993188</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>32.63847642315224</v>
+        <v>6.207047814539223</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>44.03235358395689</v>
+        <v>28.72603042348659</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>46.96914562803817</v>
+        <v>38.69370006620157</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>33.41886723747932</v>
+        <v>52.5801118433353</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>32.26063605468514</v>
+        <v>48.65280676238224</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>36.60476133548991</v>
+        <v>57.50666042301243</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>38.31827865121323</v>
+        <v>58.21946551214934</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>23.28209389212995</v>
+        <v>18.76033885494068</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>34.57785811189216</v>
+        <v>54.2251629452464</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>37.51649609986788</v>
+        <v>56.37906535850509</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>22.09773418383442</v>
+        <v>21.54494281479818</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>35.01464619650004</v>
+        <v>41.47443799147378</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>38.69096198714296</v>
+        <v>47.06019471287654</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>20.52349839378988</v>
+        <v>5.957288091573716</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>34.037656487961</v>
+        <v>39.92197278946206</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>37.60410975954696</v>
+        <v>44.07354499520856</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>25.07331342729922</v>
+        <v>10.60056632822359</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>38.88442615987552</v>
+        <v>61.43472179033752</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>42.67139221873515</v>
+        <v>69.6832747622074</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>41.75975533374066</v>
+        <v>72.91505787335491</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>46.12149467033865</v>
+        <v>81.84658728360715</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>47.83149625792591</v>
+        <v>83.89845956356238</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>32.63878032219719</v>
+        <v>26.76012744079303</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>44.03266747229871</v>
+        <v>73.57205047473481</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>46.96946115276911</v>
+        <v>76.80070437192676</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>33.41906913821666</v>
+        <v>55.1918059595195</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>32.2608413708986</v>
+        <v>45.64194962472983</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>36.60496480908823</v>
+        <v>53.03041127837325</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>38.31848113934959</v>
+        <v>57.69225938097556</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>23.28230076171083</v>
+        <v>10.97047309237301</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>34.57806207350542</v>
+        <v>49.80752169413596</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>37.51669803354787</v>
+        <v>54.71309907399375</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>22.09793374306873</v>
+        <v>16.39406680968925</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>35.01484232435358</v>
+        <v>36.92325480332654</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>38.69115571102017</v>
+        <v>45.22876630898183</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>20.52370455416951</v>
+        <v>3.574250148918694</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>34.03785909936537</v>
+        <v>37.94480629414151</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>37.60431007505775</v>
+        <v>44.97525962786746</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>25.07351907713989</v>
+        <v>8.80199614319163</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>38.88462807612588</v>
+        <v>61.37208471879013</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>42.67159167889342</v>
+        <v>73.01978963477053</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>41.75995808499842</v>
+        <v>72.81859818992696</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>46.12169558553192</v>
+        <v>80.21654073394625</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>47.83169616307729</v>
+        <v>85.94617864889189</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>32.63898469276581</v>
+        <v>19.95474523543798</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>44.03286890783193</v>
+        <v>71.29688447830618</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>46.96966053815765</v>
+        <v>77.14297036908685</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>33.4189809371144</v>
+        <v>50.17354388140437</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>32.26075331230006</v>
+        <v>30.17333969766598</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>36.60487964422649</v>
+        <v>39.14784192496386</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>38.31839639581039</v>
+        <v>48.28912483479773</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>23.2822091771139</v>
+        <v>5.185079295522414</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>34.57797517951765</v>
+        <v>41.4242897365986</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>37.51661213925441</v>
+        <v>51.25459112090128</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>22.09784201396609</v>
+        <v>13.88475665957513</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>35.01475629203722</v>
+        <v>34.56664367695667</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>38.69107092491858</v>
+        <v>46.97963962481184</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>20.5236035786266</v>
+        <v>4.983463356771821</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>34.03776436137406</v>
+        <v>35.08174895474518</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>37.60421627095581</v>
+        <v>45.890144303013</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>25.07342179367103</v>
+        <v>6.479550699872121</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>38.88453702159</v>
+        <v>55.09803257985327</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>42.67150193943549</v>
+        <v>71.33169247665982</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>41.75986855936189</v>
+        <v>59.42255679739112</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>46.1216089725552</v>
+        <v>69.83541711307844</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>47.83160998174777</v>
+        <v>81.03964619404128</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>32.63889169965746</v>
+        <v>14.86906164388212</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>44.03278063429055</v>
+        <v>62.96215252481606</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>46.96957328290296</v>
+        <v>75.85787199013653</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>6.584667974047511</v>
+        <v>7.406149662738287</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>18.99954017632387</v>
+        <v>8.325810248828034</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>22.53585100178016</v>
+        <v>15.65778470332724</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>4.645907680168712</v>
+        <v>-5.195194623479964</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>17.67296558009526</v>
+        <v>5.359586330694199</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>21.11943394668407</v>
+        <v>7.351227287967717</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>9.063070827037931</v>
+        <v>0.8946617723517107</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>22.3612312305095</v>
+        <v>17.12536284158334</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>26.00074087548457</v>
+        <v>21.44818862157452</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>24.76588340912944</v>
+        <v>9.450404407832238</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>28.94833482686954</v>
+        <v>17.70074872181353</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>30.60996284658037</v>
+        <v>19.66758499268353</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>16.00283570478744</v>
+        <v>6.343722605317382</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>26.92049219956611</v>
+        <v>3.916007421211376</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>29.78208048206123</v>
+        <v>14.87955391773868</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>9.421454731840557</v>
+        <v>10.78675859046912</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>21.97878596826945</v>
+        <v>18.06718127798176</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>25.58610110310046</v>
+        <v>25.16819632569577</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>7.169305073727307</v>
+        <v>-3.086841165455823</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>20.29365466318798</v>
+        <v>2.017451478698874</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>23.82546397800354</v>
+        <v>8.195099975368137</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>11.67336930732424</v>
+        <v>-1.988609702574863</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>25.10990613074977</v>
+        <v>14.13113030141274</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>6.584929987616558</v>
+        <v>8.409555081985744</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>18.99981291144268</v>
+        <v>15.84867290977876</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>22.53612590180729</v>
+        <v>19.89077463370911</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>4.646180637687074</v>
+        <v>-5.8812593866203</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>17.67324966898431</v>
+        <v>19.20756140548191</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>21.11972040687365</v>
+        <v>21.16517199004231</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>9.063346741204338</v>
+        <v>0.990844506419009</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>22.36151847002101</v>
+        <v>33.27305328673653</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>26.00103034795965</v>
+        <v>35.59213587426551</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>24.76617424521498</v>
+        <v>34.91702877364862</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>28.94862791951458</v>
+        <v>40.78355555438627</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>30.61025717934298</v>
+        <v>41.15862881849775</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>16.00311792877394</v>
+        <v>13.56333768092314</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>26.92078407040876</v>
+        <v>30.58703139835073</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>29.78237397460571</v>
+        <v>36.80338113522173</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>9.421718489902219</v>
+        <v>14.70167744012382</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>21.97906051118643</v>
+        <v>29.23255797342615</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>25.58637787845106</v>
+        <v>34.41409203613851</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>7.169579635176508</v>
+        <v>0.3683293811875643</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>20.29394039299445</v>
+        <v>21.47069291298207</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>23.82575215503622</v>
+        <v>29.22827210199604</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>11.67364690959488</v>
+        <v>4.110318720517071</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>25.11019512124426</v>
+        <v>38.17724244688868</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>6.585131735660694</v>
+        <v>3.095324832923396</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>19.00001139169915</v>
+        <v>10.5334812153077</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>22.53632206387882</v>
+        <v>17.29174276936784</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>4.646388980966901</v>
+        <v>-8.191944838271226</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>17.67345461579124</v>
+        <v>16.33589685887416</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>21.11992313629322</v>
+        <v>21.22431086943745</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>9.063554581540643</v>
+        <v>-1.249601857797913</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>22.36172273800164</v>
+        <v>31.97415293970521</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>26.00123225293285</v>
+        <v>37.84235226191738</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>24.76637960023259</v>
+        <v>33.90552472548138</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>28.94883151644884</v>
+        <v>38.46458624552143</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>30.61045981116682</v>
+        <v>42.17337274954976</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>16.00332474757181</v>
+        <v>5.905224536482237</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>26.92098812370606</v>
+        <v>25.75176209434618</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>29.78257602645209</v>
+        <v>34.62205958754627</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>9.42191944195066</v>
+        <v>8.126859261971461</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>21.97925812590687</v>
+        <v>22.70297412409137</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>25.58657316604534</v>
+        <v>31.08378944999966</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>7.169787370125961</v>
+        <v>-3.697038011885482</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>20.29414468020431</v>
+        <v>16.88478224949527</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>23.82595420311885</v>
+        <v>28.23028937434866</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>11.6738541222841</v>
+        <v>0.3606977659504338</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>25.11039869697673</v>
+        <v>35.47591773488325</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>6.585038932443782</v>
+        <v>-1.118924668914147</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>18.9999240282915</v>
+        <v>5.906531777680428</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>22.53623581053252</v>
+        <v>16.10021910676822</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>4.646286823403457</v>
+        <v>-7.985869417640671</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>17.67335845006831</v>
+        <v>13.59868394782613</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>21.11982779583618</v>
+        <v>21.45366057726905</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>9.063456121112953</v>
+        <v>-3.527189211639055</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>22.3616302438477</v>
+        <v>26.55229774340229</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>26.00114093146988</v>
+        <v>35.86860950293702</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>24.76628826772663</v>
+        <v>22.58192737221752</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>28.94874295711084</v>
+        <v>27.04383170256354</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>30.61037164736477</v>
+        <v>36.03088120872972</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>16.00323011956543</v>
+        <v>1.51753396389951</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>26.92089796895471</v>
+        <v>18.34854432945731</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>29.78248681365158</v>
+        <v>33.26139396842525</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>9.421828715299389</v>
+        <v>3.228111921650722</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>21.97917294360325</v>
+        <v>17.57154525739499</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>25.58648913114149</v>
+        <v>28.67395666654959</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>7.169687116635052</v>
+        <v>-4.319909286447839</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>20.29405050030924</v>
+        <v>12.6158112998845</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>23.82586088762343</v>
+        <v>26.24310015797427</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>11.67375760466831</v>
+        <v>-3.951300837520094</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>25.11030824914531</v>
+        <v>27.23423873407422</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>28.82774224229171</v>
+        <v>25.03088846448414</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>27.68323498463467</v>
+        <v>10.11622931426983</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>31.96014670543742</v>
+        <v>24.92051994512677</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>33.65109908580624</v>
+        <v>29.93191833920331</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>18.90209951764824</v>
+        <v>3.031913341500015</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>29.99649461731094</v>
+        <v>13.38059101540766</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>32.89028194827458</v>
+        <v>22.5862419580089</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>18.00125028585774</v>
+        <v>13.4925354641846</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>30.70652690021959</v>
+        <v>21.01296750490543</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>34.32170717134954</v>
+        <v>31.5826064263929</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>16.30202891016026</v>
+        <v>-4.497338830165162</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>29.6016436885287</v>
+        <v>5.235238742584571</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>33.11061806303065</v>
+        <v>12.24397141612873</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>20.80533600156567</v>
+        <v>-1.729066138561151</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>34.39172636436317</v>
+        <v>21.45879777514553</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>38.11723246765206</v>
+        <v>36.18371995652332</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>37.21959065764099</v>
+        <v>23.5693100007356</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>41.51329771142778</v>
+        <v>38.88001500540055</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>43.19950387719934</v>
+        <v>45.64168352152281</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>28.29649077497895</v>
+        <v>4.295638545154375</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>39.48725674641732</v>
+        <v>21.06793271779527</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>42.37852868116666</v>
+        <v>34.00713023735956</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>28.8280335379181</v>
+        <v>48.92271892959617</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>27.68352754802931</v>
+        <v>41.03865866861143</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>31.96044156294673</v>
+        <v>51.89561631587172</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>33.65139521119853</v>
+        <v>56.1766640099995</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>18.90238357397233</v>
+        <v>17.20446624323817</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>29.99678840774007</v>
+        <v>48.70524090873316</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>32.89057739535374</v>
+        <v>54.36905370087463</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>18.00152657504976</v>
+        <v>23.40702441529034</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>30.7068141133076</v>
+        <v>39.39869007492065</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>34.32199655628688</v>
+        <v>46.08268865543131</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>16.3023163789863</v>
+        <v>6.110038407188242</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>29.60194248581804</v>
+        <v>34.50603060223047</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>33.11091923560166</v>
+        <v>40.63556127193981</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>20.80562658802026</v>
+        <v>11.81702030121296</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>34.39202848247795</v>
+        <v>54.9096083079436</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>38.11753682566973</v>
+        <v>66.20028723189019</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>37.21989650450552</v>
+        <v>66.81255403654681</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>41.5136058663017</v>
+        <v>76.65409082398345</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>43.1998132686801</v>
+        <v>81.62808436831368</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>28.29678792583871</v>
+        <v>27.84520997359714</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>39.4875637163883</v>
+        <v>68.35117003465187</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>42.37883727857657</v>
+        <v>75.25453255277985</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>28.82823473904077</v>
+        <v>50.4225221633284</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>27.68373213954689</v>
+        <v>36.76826613386244</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>31.96064434202054</v>
+        <v>46.2526941307659</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>33.65159701803769</v>
+        <v>54.51235703284091</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>18.90258966390093</v>
+        <v>8.436996735275486</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>29.99699164385596</v>
+        <v>43.29130221355022</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>32.89077863465083</v>
+        <v>51.80349149558081</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>18.00172532064671</v>
+        <v>17.16471454274593</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>30.70700948371027</v>
+        <v>33.81229545366931</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>34.32218956431886</v>
+        <v>43.23452958678355</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>16.30252168889286</v>
+        <v>2.676564302295631</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>29.60214430079474</v>
+        <v>31.5091991764272</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>33.11111879333323</v>
+        <v>40.5974364748039</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>20.80583139284998</v>
+        <v>8.927792185800214</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>34.39222961481799</v>
+        <v>53.83232320126719</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>38.11773554425251</v>
+        <v>68.56032149389783</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>37.22009848765008</v>
+        <v>65.52765876977794</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>41.5138060438387</v>
+        <v>73.92691543390266</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>43.2000124507391</v>
+        <v>82.61500588724466</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>28.29699147329588</v>
+        <v>20.17407316413961</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>39.4877643835398</v>
+        <v>65.15262858222694</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>42.37903592736921</v>
+        <v>74.77712565835849</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>28.82814550443058</v>
+        <v>44.790791492548</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>27.68364307803522</v>
+        <v>20.89478031185085</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>31.96055811881648</v>
+        <v>31.54178564539303</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>33.65151120421067</v>
+        <v>44.3622856826663</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>18.90249717075909</v>
+        <v>1.606248192333069</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>29.99690374945746</v>
+        <v>33.94601124067488</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>32.89069170443184</v>
+        <v>47.15603302695816</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>18.00163276456623</v>
+        <v>13.54817395286149</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>30.70692252757824</v>
+        <v>30.37404348363292</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>34.32210381446122</v>
+        <v>43.58812550206359</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>16.30241994063459</v>
+        <v>3.056566643643166</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>29.60204868936432</v>
+        <v>27.81067760020666</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>33.11102408399978</v>
+        <v>40.39590361331123</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>20.8057332951073</v>
+        <v>5.483944138972831</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>34.39213764150969</v>
+        <v>46.59065859257167</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>38.11764484498885</v>
+        <v>65.54503236085388</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>37.22000803336361</v>
+        <v>50.99403719649227</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>41.51371844582506</v>
+        <v>61.97722205918122</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>43.19992527126693</v>
+        <v>76.17721788301812</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>28.29689764489455</v>
+        <v>13.34047673554615</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>39.48767518156219</v>
+        <v>55.20079974391287</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>42.37894770786394</v>
+        <v>71.56767608467497</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>7.718434198274393</v>
+        <v>8.540851668197163</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>20.12586125339858</v>
+        <v>14.83513194125025</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>23.66347474484463</v>
+        <v>20.84476191375803</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>5.821383902465868</v>
+        <v>-3.374316120745462</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>18.83141564826397</v>
+        <v>8.486756961789084</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>22.28259615673068</v>
+        <v>10.59422986433479</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>10.22347653710405</v>
+        <v>2.221520999357026</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>23.51164350892095</v>
+        <v>22.10017171243594</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>27.15206219881022</v>
+        <v>25.96935382172232</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>25.93138212077697</v>
+        <v>16.09250002706737</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>30.11171017258652</v>
+        <v>24.38984908376578</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>31.77380555752233</v>
+        <v>26.34957811235255</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>17.14266258835334</v>
+        <v>3.649729909140476</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>28.07405003801638</v>
+        <v>10.13483312783528</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>30.93347152165976</v>
+        <v>19.35660219244021</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>10.45202388959246</v>
+        <v>9.266871559642354</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>22.99993352298271</v>
+        <v>21.04762501585436</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>26.60929886160237</v>
+        <v>27.06563505506305</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>8.245706659670097</v>
+        <v>-2.683625116335904</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>21.35112757696016</v>
+        <v>3.419719304380706</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>24.88847937537256</v>
+        <v>9.763531712073487</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>12.7333681297155</v>
+        <v>-1.946484426697353</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>26.15791439322449</v>
+        <v>17.17580350118887</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>7.718696601165451</v>
+        <v>9.967740657515932</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>20.12613437359724</v>
+        <v>23.04383004926159</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>23.66375003080873</v>
+        <v>25.55392578186427</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>5.821657284893154</v>
+        <v>-3.560005680901511</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>18.83170015151136</v>
+        <v>23.04874618514999</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>22.28288303680363</v>
+        <v>24.86711405623008</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>10.22375286287097</v>
+        <v>2.79012183139919</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>23.51193115402213</v>
+        <v>38.91069734497096</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>27.1523520771925</v>
+        <v>40.51220456951803</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>25.93167335849508</v>
+        <v>41.92708334606355</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>30.11200366189446</v>
+        <v>47.73641422439819</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>31.77410028480388</v>
+        <v>47.95362197947689</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>17.14294521310844</v>
+        <v>10.76970893130535</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>28.07434231568767</v>
+        <v>36.99004649431807</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>30.93376541795842</v>
+        <v>41.25744079845147</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>10.45228799080031</v>
+        <v>13.20790083882305</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>23.00020840384018</v>
+        <v>32.50729672010762</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>26.60957597665755</v>
+        <v>36.39012386751979</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>8.245981601115924</v>
+        <v>0.8570728099365255</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>21.35141367520356</v>
+        <v>23.16838390809527</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>24.88876792726214</v>
+        <v>30.82717863686479</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>12.73364609800844</v>
+        <v>4.187999539848803</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>26.15820374275379</v>
+        <v>41.45294957553982</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>7.718897568339258</v>
+        <v>4.725982815561835</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>20.12633208234885</v>
+        <v>17.71468668032905</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>23.66394542033257</v>
+        <v>22.96512259339731</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>5.821864838392163</v>
+        <v>-5.825952390947535</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>18.83190432188139</v>
+        <v>20.1377984290378</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>22.283084988115</v>
+        <v>24.90216902178945</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>10.22395991626066</v>
+        <v>0.6101848124024656</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>23.51213464536132</v>
+        <v>37.55448418172445</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>27.15255320417489</v>
+        <v>42.7204301772269</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>25.93187790894095</v>
+        <v>40.86270827852151</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>30.1122064554407</v>
+        <v>45.37839308798705</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>31.77430211148089</v>
+        <v>48.89084719483999</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>17.14315124033362</v>
+        <v>3.154479245649</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>28.07454557694387</v>
+        <v>32.08823853403318</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>30.93396667992943</v>
+        <v>38.97281454957285</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>10.45248820938064</v>
+        <v>6.559611836401317</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>23.000405295527</v>
+        <v>25.82458959002413</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>26.6097705397697</v>
+        <v>32.92472832551245</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>8.246188590809966</v>
+        <v>-3.31596375426237</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>21.35161723132306</v>
+        <v>18.39434024181956</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>24.88896924226358</v>
+        <v>29.64985084378505</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>12.73385256928588</v>
+        <v>0.3427194050683653</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>26.15840658848833</v>
+        <v>38.5429241121348</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>7.718805315966824</v>
+        <v>0.7104707442112925</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>20.12624527441312</v>
+        <v>12.92859291307845</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>23.66385972137244</v>
+        <v>21.8664509086319</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>5.821763243440538</v>
+        <v>-5.546885510255109</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>18.83180871839978</v>
+        <v>17.14595802317704</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>22.28299020737086</v>
+        <v>25.13543172625508</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>10.22386201052737</v>
+        <v>-1.533053050952631</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>23.51204270906184</v>
+        <v>31.92809028408836</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>27.15246243931024</v>
+        <v>40.84124105093444</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>25.931787134664</v>
+        <v>29.53685873786749</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>30.11211845833325</v>
+        <v>34.14116466198512</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>31.7742145114876</v>
+        <v>43.04017411889699</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>17.14305713830805</v>
+        <v>-0.5309888574334849</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>28.07445596812711</v>
+        <v>24.97170853914749</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>30.93387801418795</v>
+        <v>38.06080606961372</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>10.45239796157273</v>
+        <v>1.615311425426754</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>23.00032059532778</v>
+        <v>20.2830698310304</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>26.60968698577886</v>
+        <v>30.35632458324666</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>8.246088831413273</v>
+        <v>-4.105095262313156</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>21.35152354373663</v>
+        <v>13.63194549217063</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>24.88887641664751</v>
+        <v>27.42034075943521</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>12.73375653713899</v>
+        <v>-4.073256635195278</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>26.15831662792903</v>
+        <v>29.84647107531332</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>29.87745747466499</v>
+        <v>27.72275808595951</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>28.74684006591726</v>
+        <v>14.84169469170398</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>33.02048824466043</v>
+        <v>29.69874187039595</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>34.71183848707613</v>
+        <v>34.10214998503101</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>19.94081780575411</v>
+        <v>-0.4140328281657588</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>31.04675483181583</v>
+        <v>17.2082500191958</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>33.93882427925504</v>
+        <v>25.65561415753076</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>18.97452462127938</v>
+        <v>9.797358320882395</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>31.67050907371169</v>
+        <v>22.19161872396576</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>35.28784660577761</v>
+        <v>31.89251996209204</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>17.31629463198812</v>
+        <v>-6.738661239600262</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>30.59723270302157</v>
+        <v>4.236484172307357</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>34.11170629470721</v>
+        <v>11.59245110184231</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>21.80397066645114</v>
+        <v>-4.758089834323854</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>35.37853020658311</v>
+        <v>21.68319521882019</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>39.1056911868768</v>
+        <v>36.3234149841128</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>38.22043646537146</v>
+        <v>25.23437517016229</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>42.51107652470685</v>
+        <v>40.79479183260919</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>44.19816688879217</v>
+        <v>47.72313410827722</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>29.27403444756756</v>
+        <v>-2.421682459433853</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>40.475657132306</v>
+        <v>22.04473192249692</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>43.36549776922045</v>
+        <v>34.47790741887842</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>29.87774913055214</v>
+        <v>51.56622936155155</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>28.74713298602627</v>
+        <v>45.73875989883074</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>33.02078345369903</v>
+        <v>56.54047316420669</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>34.71213496208189</v>
+        <v>60.07116792412127</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>19.94110221747409</v>
+        <v>13.22589350006631</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>31.04704898266518</v>
+        <v>52.28954788414633</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>33.93912008435845</v>
+        <v>56.99034657817565</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>18.97480119803025</v>
+        <v>19.6328075342352</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>31.67079656809916</v>
+        <v>40.77440068289432</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>35.28813627397366</v>
+        <v>46.36712313134591</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>17.31658242121708</v>
+        <v>3.850883021477571</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>30.59753180807369</v>
+        <v>33.71725427945348</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>34.11200778166467</v>
+        <v>39.92290328995962</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>21.80426156075095</v>
+        <v>8.723138016266674</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>35.37883262462162</v>
+        <v>55.27557538481649</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>39.10599584615175</v>
+        <v>66.19956248419278</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>38.22074260893938</v>
+        <v>68.348861140349</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>42.51138497075656</v>
+        <v>78.351188907788</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>44.19847656945081</v>
+        <v>83.32811759112711</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>29.27433189469519</v>
+        <v>20.47813032279724</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>40.47596440254402</v>
+        <v>68.98997600929503</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>43.36580666467918</v>
+        <v>75.16948458896773</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>29.87794959985667</v>
+        <v>52.86612034666128</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>28.74733681949867</v>
+        <v>41.27712342406319</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>33.02098547662435</v>
+        <v>50.72395646372057</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>34.71233601102705</v>
+        <v>58.1959170298389</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>19.94130756146691</v>
+        <v>4.350934631003085</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>31.04725147353024</v>
+        <v>46.6686558244006</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>33.93932058033826</v>
+        <v>54.18048134990975</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>18.97499924946166</v>
+        <v>13.15027999709083</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>31.67099125441204</v>
+        <v>34.86219819805821</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>35.28832859634212</v>
+        <v>43.21572032949662</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>17.31678702742126</v>
+        <v>0.1338372963566741</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>30.59773293322955</v>
+        <v>30.35163608683233</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>34.11220664743981</v>
+        <v>39.53180579366536</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>21.80446566542551</v>
+        <v>5.568288954200241</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>35.37903306783389</v>
+        <v>53.81338410554285</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>39.10619387378925</v>
+        <v>68.19058474803636</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>38.22094387647651</v>
+        <v>66.69528250634075</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>42.51158443428342</v>
+        <v>75.27486019516174</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>44.19867503537263</v>
+        <v>83.93120144204262</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>29.27453473782906</v>
+        <v>12.53156630844184</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>40.47616436611615</v>
+        <v>65.41363821382735</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>43.36600461152609</v>
+        <v>74.2817401609084</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>29.87786085118304</v>
+        <v>47.08223269522806</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>28.74724824473671</v>
+        <v>25.15818318102954</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>33.02089974317364</v>
+        <v>35.963732131089</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>34.71225068819988</v>
+        <v>48.09278489760494</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>19.94121552404838</v>
+        <v>-1.991994360411823</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>31.04716405324353</v>
+        <v>37.3970750098451</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>33.93923412511517</v>
+        <v>49.76531007212962</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>18.97490717685205</v>
+        <v>9.210733143296082</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>31.67090478628636</v>
+        <v>30.72076919275189</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>35.28824333292303</v>
+        <v>43.12822864380736</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>17.31668577651626</v>
+        <v>0.05903832422124822</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>30.5976378189436</v>
+        <v>25.84542606522852</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>34.11211243207544</v>
+        <v>38.79059319753235</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>21.80436805596198</v>
+        <v>1.734504302118367</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>35.37894158576606</v>
+        <v>45.81240078226331</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>39.10610366399852</v>
+        <v>64.72833176030871</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>38.22085391232251</v>
+        <v>51.6177356949154</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>42.51149732987849</v>
+        <v>62.96294092216304</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>44.19858835126065</v>
+        <v>77.25781751066695</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>29.27444136913958</v>
+        <v>5.924078259955152</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>40.47607564249579</v>
+        <v>55.23804484555875</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>43.36591687112835</v>
+        <v>71.0357601827675</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>13.28783464931503</v>
+        <v>10.79245719675917</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>25.89449038124786</v>
+        <v>19.20770804916445</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>29.50286140821618</v>
+        <v>25.45841913120272</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>11.47495668273957</v>
+        <v>0.3526786118219576</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>24.68723044293289</v>
+        <v>17.25070592825413</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>28.21111360541009</v>
+        <v>18.07352967528574</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>15.96641078001231</v>
+        <v>5.274973509159267</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>29.46765416506538</v>
+        <v>31.1610033283299</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>33.18046776574106</v>
+        <v>33.73841005475946</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>31.98335225250241</v>
+        <v>23.66636897445655</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>36.23129783792513</v>
+        <v>31.70813593901376</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>37.92462793079503</v>
+        <v>32.13057399883969</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>23.03707954137005</v>
+        <v>8.104529225682015</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>34.13908294277707</v>
+        <v>15.70267822937161</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>37.05403050358361</v>
+        <v>24.49666083584923</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>16.1271397089197</v>
+        <v>9.781983712796077</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>28.87606846635231</v>
+        <v>23.61223220692857</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>32.55575129461648</v>
+        <v>28.76812842288255</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>14.00186125346471</v>
+        <v>-1.819024496646804</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>27.31053250410712</v>
+        <v>8.990934202888198</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>30.92028148172048</v>
+        <v>12.95263727542972</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>18.57973746960072</v>
+        <v>-1.689544080995617</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>32.21901481083938</v>
+        <v>23.19223802615092</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>13.28810529321059</v>
+        <v>14.29896321149387</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>25.89477192489518</v>
+        <v>29.87188607979657</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>29.50314515999943</v>
+        <v>32.32909474356508</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>11.47523853357479</v>
+        <v>2.153600844332161</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>24.68752359520818</v>
+        <v>34.49563202863463</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>28.21140918252739</v>
+        <v>34.84483851241463</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>15.96669565902411</v>
+        <v>7.923969563226578</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>29.46795055585709</v>
+        <v>50.83440222572811</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>33.18076643330333</v>
+        <v>50.88289551226306</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>31.98365231913994</v>
+        <v>52.71630092374532</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>36.23160019185547</v>
+        <v>58.08821225358197</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>37.92493154599056</v>
+        <v>56.65556418380986</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>23.03737084969805</v>
+        <v>17.63683357876913</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>34.13938405964045</v>
+        <v>45.74250498256897</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>37.05433327376208</v>
+        <v>49.33998054236069</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>16.12741210481006</v>
+        <v>14.81454675930227</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>28.87635182522906</v>
+        <v>36.53842414227931</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>32.55603692986406</v>
+        <v>39.28437906688332</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>14.00214471676061</v>
+        <v>2.737484360175912</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>27.31082730519336</v>
+        <v>30.475203418188</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>30.92057878439453</v>
+        <v>35.58419986616785</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>18.58002404593533</v>
+        <v>5.58840503047314</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>32.21931296176747</v>
+        <v>49.43562187411983</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>13.2883073188967</v>
+        <v>9.663361895075283</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>25.89497064278437</v>
+        <v>25.24436960947635</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>29.50334151777027</v>
+        <v>30.48048116416679</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>11.47544720255103</v>
+        <v>0.6630460511208724</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>24.68772883028036</v>
+        <v>32.42860109889402</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>28.21161215937575</v>
+        <v>35.78213030518263</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>15.96690382158661</v>
+        <v>6.538619485520016</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>29.46815510266363</v>
+        <v>50.41176404771288</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>33.18096857395078</v>
+        <v>54.07883871958806</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>31.98385791904693</v>
+        <v>52.61381679864964</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>36.23180400643699</v>
+        <v>56.62661013347362</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>37.92513437491916</v>
+        <v>58.59318541745354</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>23.0375779553516</v>
+        <v>10.67543011178655</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>34.13958836178728</v>
+        <v>41.67344088111044</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>37.05453554050813</v>
+        <v>47.9500423063074</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>16.12761334087097</v>
+        <v>8.685436000942602</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>28.87654968422719</v>
+        <v>30.47402805854368</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>32.55623241971575</v>
+        <v>36.48421654019977</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>14.00235278302678</v>
+        <v>-0.7699431912254937</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>27.31103188656905</v>
+        <v>26.44182467669377</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>30.92078108566232</v>
+        <v>35.21639187820919</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>18.58023158766211</v>
+        <v>2.434903898496103</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>32.21951682357318</v>
+        <v>47.36503719557142</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>13.2882165334822</v>
+        <v>4.491021739869453</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>25.89488537995014</v>
+        <v>19.30096886372907</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>29.50325739338557</v>
+        <v>28.43493386108129</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>11.47534700499772</v>
+        <v>0.01211648566363976</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>24.68763470982162</v>
+        <v>28.36120670659135</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>28.21151889005242</v>
+        <v>35.15860479076652</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>15.966807363603</v>
+        <v>3.322505542458273</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>29.46806470036671</v>
+        <v>43.56363547117662</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>33.18087937340407</v>
+        <v>51.17574994875476</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>31.98376874206311</v>
+        <v>39.82510104238283</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>36.23171765134099</v>
+        <v>43.98089184447618</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>37.9250484242364</v>
+        <v>51.55460117716031</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>23.03748538111578</v>
+        <v>5.75391491157221</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>34.13950035030941</v>
+        <v>33.23302363391373</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>37.05444849079133</v>
+        <v>45.94113473999253</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>16.12752464455691</v>
+        <v>2.976105667334039</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>28.87646661488648</v>
+        <v>24.19566789728738</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>32.55615052620717</v>
+        <v>33.37437479135765</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>14.00225450317841</v>
+        <v>-2.09733771193801</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>27.31093976496014</v>
+        <v>21.00336199122468</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>30.92068985450002</v>
+        <v>32.51636224750801</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>18.5801370855599</v>
+        <v>-2.688116912111795</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>32.2194284803786</v>
+        <v>37.81399703515901</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>36.01063320250083</v>
+        <v>31.4881945171859</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>34.90604679847485</v>
+        <v>19.85784136107468</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>39.24877220781512</v>
+        <v>34.1815998803702</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>40.97154360989417</v>
+        <v>36.79782781388245</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>25.9416387258048</v>
+        <v>2.077090680335445</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>37.22069116561313</v>
+        <v>21.30337505249658</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>40.1671598936334</v>
+        <v>28.02411144348859</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>24.46305086105675</v>
+        <v>8.736517210723278</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>37.35761371030739</v>
+        <v>22.83395787339255</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>41.04782888743531</v>
+        <v>32.46189233973571</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>22.88906521521614</v>
+        <v>-7.142172426367139</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>36.37062871702179</v>
+        <v>8.141263411028277</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>39.95953774441318</v>
+        <v>13.90587120438779</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>27.46354794161179</v>
+        <v>-6.2365601992134</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>41.25041943145967</v>
+        <v>25.63543624951045</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>45.05215701813533</v>
+        <v>38.8825334024031</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>44.19218641400707</v>
+        <v>28.68144010215782</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>48.55138770187965</v>
+        <v>44.01339957660785</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>50.27046018454426</v>
+        <v>49.43549799417617</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>35.08861957484446</v>
+        <v>-2.06273053436756</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>46.4619354682611</v>
+        <v>24.12050708569721</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>49.40781234557845</v>
+        <v>35.4976791874018</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>36.01093370312901</v>
+        <v>57.06521412984948</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>34.90634860201274</v>
+        <v>53.03069490351909</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>39.24907633604579</v>
+        <v>63.03668130537635</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>40.97184902775362</v>
+        <v>64.68812090619311</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>25.94193187691517</v>
+        <v>17.26589990834744</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>37.22099421264967</v>
+        <v>58.71527047219128</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>40.16746462907022</v>
+        <v>61.45643841275474</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>24.46333570235354</v>
+        <v>19.39603419839897</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>37.35790965048014</v>
+        <v>42.6474740046139</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>41.04812704501144</v>
+        <v>47.85376853560943</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>22.88936149604682</v>
+        <v>4.237005251162358</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>36.37093649267142</v>
+        <v>39.20526424908532</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>39.95984795111027</v>
+        <v>43.60174741599404</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>27.46384741291103</v>
+        <v>8.162645953724692</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>41.2507306178098</v>
+        <v>61.0204351375681</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>45.05247049048069</v>
+        <v>70.23837359342146</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>44.19250141006434</v>
+        <v>73.98151311717571</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>48.55170503633344</v>
+        <v>83.45468446739442</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>50.27077877734928</v>
+        <v>86.79916236352106</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>35.08892573033198</v>
+        <v>22.21351851771614</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>46.462251602319</v>
+        <v>73.32179350277356</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>49.40813014014753</v>
+        <v>78.15415798710241</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>36.01113514696011</v>
+        <v>59.27005245531531</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>34.9065534438154</v>
+        <v>49.36944820723794</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>39.24927933804364</v>
+        <v>57.95224693817143</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>40.97205103674091</v>
+        <v>63.66632596931747</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>25.94213825879783</v>
+        <v>8.956146443335186</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>37.22119770254636</v>
+        <v>53.85251430188619</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>40.16766608862477</v>
+        <v>59.46314617313489</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>24.46353488697895</v>
+        <v>13.36115474001473</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>37.35810542103009</v>
+        <v>37.29422348807078</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>41.04832040999356</v>
+        <v>45.29706154162379</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>22.8895672931427</v>
+        <v>1.12066573938607</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>36.37113875861569</v>
+        <v>36.53741747671906</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>39.96004791805218</v>
+        <v>43.96340284399723</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>27.46405270408593</v>
+        <v>5.643930989686183</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>41.25093219438782</v>
+        <v>60.35749593696265</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>45.05266960885444</v>
+        <v>73.07403529755682</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>44.1927038016733</v>
+        <v>73.13725321726371</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>48.55190559505637</v>
+        <v>81.11519032980509</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>50.27097831908587</v>
+        <v>88.24928897168057</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>35.08912972689902</v>
+        <v>14.78638901623269</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>46.4624526808619</v>
+        <v>70.48631876770655</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>49.40832916587661</v>
+        <v>78.0669673777076</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>36.01104804619038</v>
+        <v>52.80990354168746</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>34.90646655294604</v>
+        <v>32.06363160505974</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>39.24919533469676</v>
+        <v>42.12761436842676</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>40.97196745114321</v>
+        <v>52.69841426620705</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>25.94204783325755</v>
+        <v>1.712129060848142</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>37.22111196536522</v>
+        <v>43.65008359133454</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>40.16758133486658</v>
+        <v>54.30297348370247</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>24.46344418057874</v>
+        <v>9.105979278780566</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>37.35802039832826</v>
+        <v>32.87059856189104</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>41.04823662296042</v>
+        <v>45.14660123341393</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>22.88946734002792</v>
+        <v>0.9453699076616289</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>36.37104502779485</v>
+        <v>31.7753509842493</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>39.95995511573724</v>
+        <v>43.19970831017893</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>27.46395643991547</v>
+        <v>1.544546678324295</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>41.25084214477623</v>
+        <v>51.93983166431262</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>45.0525808632987</v>
+        <v>69.41754993390374</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>44.19261533558119</v>
+        <v>57.3374520997519</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>48.55182003434098</v>
+        <v>68.23428104001722</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>50.27089318621949</v>
+        <v>81.23739731497734</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>35.08903778631668</v>
+        <v>7.694979551164224</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>46.46236545629903</v>
+        <v>59.75091193382359</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>49.40824294352048</v>
+        <v>74.50035556496813</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>17.74954901689227</v>
+        <v>14.88350176505379</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>30.16408834821397</v>
+        <v>18.60013369549982</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>33.73960654513294</v>
+        <v>24.82967289857847</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>15.97486591508139</v>
+        <v>6.979127515466942</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>28.99037929769419</v>
+        <v>21.68846335011752</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>32.48196977449348</v>
+        <v>21.96122554010778</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>20.45138983049744</v>
+        <v>9.671473047384168</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>33.74998265465456</v>
+        <v>31.00430590329817</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>37.42869499599676</v>
+        <v>33.80187845835913</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>36.22295016943449</v>
+        <v>21.85511786314576</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>40.41017272421857</v>
+        <v>29.62636328258391</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>42.08768302795976</v>
+        <v>30.68532905079262</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>27.41111847547088</v>
+        <v>16.04028500632917</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>38.32801355639288</v>
+        <v>15.48749632906215</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>41.21733264637064</v>
+        <v>25.87606989844018</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>20.53805470787603</v>
+        <v>12.67964924304984</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>33.09596861387493</v>
+        <v>21.981791498845</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>36.74172594401412</v>
+        <v>27.6562572277037</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>18.44936247580155</v>
+        <v>3.661547889183637</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>31.56272676586214</v>
+        <v>11.99156453264597</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>35.13887685137666</v>
+        <v>15.91877963724791</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>23.01040473153805</v>
+        <v>0.5821347216762689</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>36.44820041059174</v>
+        <v>20.97329123412901</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>17.74981945960348</v>
+        <v>17.19565601950343</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>30.16436954235719</v>
+        <v>27.66687723309421</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>33.73988993239195</v>
+        <v>30.42418274835815</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>15.97514742087786</v>
+        <v>7.510679527877798</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>28.99067195066721</v>
+        <v>37.09294910276923</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>32.48226483387032</v>
+        <v>37.25377688616508</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>20.45167436818743</v>
+        <v>11.05212462592628</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>33.75027854961485</v>
+        <v>48.85834649184282</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>37.42899315262468</v>
+        <v>49.52789257971777</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>36.22324969658348</v>
+        <v>49.2447545488257</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>40.41047451317747</v>
+        <v>54.50659181836086</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>42.08798606870955</v>
+        <v>53.97064807249016</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>27.41140935724886</v>
+        <v>24.88038124493666</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>38.32831410349941</v>
+        <v>44.10572118683287</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>41.21763484094789</v>
+        <v>49.62934545976664</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>20.538326855103</v>
+        <v>16.97972022432297</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>33.09625157634372</v>
+        <v>33.75614198061452</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>36.74201116663577</v>
+        <v>37.3333368062345</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>18.44964554677984</v>
+        <v>7.421286105205027</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>31.56302102108785</v>
+        <v>32.07932834334379</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>35.13917358872177</v>
+        <v>37.51748298744646</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>23.01069091783815</v>
+        <v>7.063864962875229</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>36.44849801755231</v>
+        <v>45.83157616696313</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>17.75001776927837</v>
+        <v>12.47338209428413</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>30.16456459661745</v>
+        <v>23.03371945405054</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>33.74008265328742</v>
+        <v>28.50079606527378</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>15.97535227786427</v>
+        <v>5.867681203896709</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>28.99087342507007</v>
+        <v>34.95142879595609</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>32.48246407622771</v>
+        <v>38.06189256709176</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>20.45187871990257</v>
+        <v>9.523495284049162</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>33.75047934191119</v>
+        <v>48.38615312860732</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>37.42919156653055</v>
+        <v>52.61075883105407</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>36.22345155863579</v>
+        <v>49.01078708175682</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>40.41067461634427</v>
+        <v>52.92541506851593</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>42.08818519578039</v>
+        <v>55.77855096082347</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>27.41161269243785</v>
+        <v>17.90954752540786</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>38.32851468795103</v>
+        <v>40.05597640864677</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>41.21783341025719</v>
+        <v>48.24464791466592</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>20.53852438757001</v>
+        <v>10.80310496086405</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>33.0964457837128</v>
+        <v>27.71639434953586</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>36.74220303205293</v>
+        <v>34.48973940557219</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>18.44984981522916</v>
+        <v>3.813869545618942</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>31.56322185558702</v>
+        <v>28.01631394940061</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>35.13937216983693</v>
+        <v>37.06714829017902</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>23.01089466273564</v>
+        <v>3.820816761164409</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>36.44869813834336</v>
+        <v>43.75680444521142</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>17.74993073751693</v>
+        <v>8.156022721821287</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>30.164482980287</v>
+        <v>18.34278002409495</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>33.74000216654841</v>
+        <v>27.32855311077323</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>15.97525598013512</v>
+        <v>6.196760635150625</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>28.99078309283719</v>
+        <v>32.3391698309225</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>32.48237459196275</v>
+        <v>38.4801570140897</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>20.45178613251673</v>
+        <v>7.314243391033969</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>33.7503926959112</v>
+        <v>43.02318215373965</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>37.42910611213389</v>
+        <v>50.73631737622667</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>36.22336613612043</v>
+        <v>37.47269569039564</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>40.41059196651717</v>
+        <v>41.36716351099734</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>42.08810294496233</v>
+        <v>49.57273978750383</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>27.41152393845654</v>
+        <v>13.42947485417771</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>38.32843039704784</v>
+        <v>32.60975686644555</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>41.217750066489</v>
+        <v>46.93807406952031</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>20.5384394249927</v>
+        <v>6.255844559009361</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>33.09636634182462</v>
+        <v>22.99814944216008</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>36.74212475711732</v>
+        <v>32.57776408472371</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>18.44975541307177</v>
+        <v>3.766615667774673</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>31.56313350131553</v>
+        <v>24.34346177057743</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>35.13928470235666</v>
+        <v>35.74198774000378</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>23.01080400766562</v>
+        <v>0.02441673997164173</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>36.4486135287474</v>
+        <v>36.03409403519787</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>40.20447194834456</v>
+        <v>29.95418877009253</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>39.08893205775789</v>
+        <v>15.97552866946411</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>43.37122371548216</v>
+        <v>30.04599800254631</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>45.07829035239392</v>
+        <v>34.12629026041397</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>30.25825180298799</v>
+        <v>6.778204020434956</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>41.35263010225195</v>
+        <v>18.61579693293108</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>44.27282103910701</v>
+        <v>26.61236910331844</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>28.72717628122968</v>
+        <v>13.72805410593269</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>41.42807309164597</v>
+        <v>22.99073640127985</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>45.08399029191322</v>
+        <v>32.38429743496953</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>27.18787497249686</v>
+        <v>0.7779446490986714</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>40.47068037580549</v>
+        <v>13.39191263134207</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>44.02640072142681</v>
+        <v>18.44399097305829</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>31.74320100780939</v>
+        <v>-0.9703786209587832</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>45.32604758762797</v>
+        <v>26.1270904122661</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>49.09221013745992</v>
+        <v>39.32340993209876</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>48.21964171320355</v>
+        <v>27.83483061671005</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>52.51768160818959</v>
+        <v>42.57286106782148</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>54.22035645496348</v>
+        <v>48.56766193827376</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>39.25040859447898</v>
+        <v>6.141025591338249</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>50.43844499055884</v>
+        <v>24.19840983626729</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>53.35785307176327</v>
+        <v>36.26517073206863</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>40.2047718886453</v>
+        <v>54.54313741190394</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>39.08923327161034</v>
+        <v>47.91326759695009</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>43.37152722836694</v>
+        <v>57.86244836532374</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>45.07859514516385</v>
+        <v>61.22251619771588</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>30.25854447642821</v>
+        <v>21.71458426316458</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>41.35293252850716</v>
+        <v>55.00519151536058</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>44.27312514728181</v>
+        <v>59.35294121015529</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>28.7274607307581</v>
+        <v>23.84635882121363</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>41.42836849077072</v>
+        <v>41.80635829378362</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>45.08428789234809</v>
+        <v>47.13009929197226</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>27.18817071619194</v>
+        <v>11.50309257553904</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>40.47098745899996</v>
+        <v>43.12919599508469</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>44.02671021639868</v>
+        <v>47.22054987117754</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>31.74349994125531</v>
+        <v>12.77534843994398</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>45.32635808053156</v>
+        <v>60.21854050888273</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>49.09252290027086</v>
+        <v>69.83829653733245</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>48.21995596940201</v>
+        <v>71.98284868910112</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>52.5179981772753</v>
+        <v>81.05188397257133</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>54.22067427289867</v>
+        <v>85.25006857098977</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>39.25071412378175</v>
+        <v>30.2937748277637</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>50.43876035468726</v>
+        <v>72.42157760051775</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>53.35817008979658</v>
+        <v>78.3316629682058</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>40.20496961979964</v>
+        <v>56.68043771645161</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>39.08943439045748</v>
+        <v>44.19469244394473</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>43.37172653372998</v>
+        <v>52.72812249248706</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>45.07879346692913</v>
+        <v>60.12997225867609</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>30.25874710328211</v>
+        <v>13.44364034774686</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>41.35313231601547</v>
+        <v>50.18832274940924</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>44.27332292499409</v>
+        <v>57.39497040829231</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>28.72765626268945</v>
+        <v>17.95541701624565</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>41.42856066129553</v>
+        <v>36.66184736856239</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>45.08447768500434</v>
+        <v>44.72079624407941</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>27.18837276634754</v>
+        <v>8.476113023456193</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>40.47118602984449</v>
+        <v>40.60643344365023</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>44.02690651517923</v>
+        <v>47.68073267687349</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>31.7437014878501</v>
+        <v>10.34779003043208</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>45.32655596897759</v>
+        <v>59.72287491405432</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>49.09271835925426</v>
+        <v>72.78674498376064</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>48.22015469155136</v>
+        <v>71.2280530656593</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>52.51819509311238</v>
+        <v>78.80796854817676</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>54.22087018204</v>
+        <v>86.77693226036966</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>39.25091441884851</v>
+        <v>23.07460130611453</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>50.43895778411636</v>
+        <v>69.77883510763819</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>53.35836548736631</v>
+        <v>78.42812278300202</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>40.20488624236856</v>
+        <v>51.60785128174929</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>39.08935122895103</v>
+        <v>28.5245046690434</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>43.37164621104812</v>
+        <v>38.33941106344788</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>45.07871355687323</v>
+        <v>50.36739491727248</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>30.25866047319955</v>
+        <v>6.955378105547354</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>41.35305027513231</v>
+        <v>41.28658769116983</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>44.27324185283371</v>
+        <v>53.27051997237542</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>28.72756925225186</v>
+        <v>14.87668355603741</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>41.4284792261339</v>
+        <v>33.82417568180422</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>45.08439747629647</v>
+        <v>45.76698594160713</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>27.18827665047143</v>
+        <v>9.608633877058864</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>40.47109602289162</v>
+        <v>37.67406744095108</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>44.02681743382333</v>
+        <v>48.32084293677467</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>31.74360903122103</v>
+        <v>7.596153901395283</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>45.32646961162307</v>
+        <v>53.17091740198153</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>49.09263329534915</v>
+        <v>70.52302616866633</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>48.22006991144966</v>
+        <v>57.0610939222084</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>52.51811316855645</v>
+        <v>67.3636528168921</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>54.22078867959597</v>
+        <v>80.92649844581577</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>39.25082622955928</v>
+        <v>16.74516119215217</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>50.43887421116982</v>
+        <v>60.39904209728947</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>53.35828290209932</v>
+        <v>75.88842329637718</v>
       </c>
     </row>
   </sheetData>
